--- a/biology/Médecine/Gilbert_Breschet/Gilbert_Breschet.xlsx
+++ b/biology/Médecine/Gilbert_Breschet/Gilbert_Breschet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Breschet est un médecin français né le 7 juillet 1784 à Clermont-Ferrand, mort le 10 mai 1845 à Paris.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie à La Charité à partir de 1803 et est reçu docteur en médecine en 1812[1] grâce à une thèse sur les écrits de François Broussais. Il fut un anatomiste réputé. Il succéda à Jean Cruveilhier, comme professeur d'anatomie à la Faculté de médecine.
-Breschet apporte de nombreuses contributions à l'anatomie comparée ainsi que sur l'étude des zoonoses[2]. En 1813, avec François Magendie (1783-1855), il démontre que la rage peut être transmise de la salive de l'homme aux chiens. En outre, il a découvert le rete mirabile des baleines et des dauphins, un réseau vasculaire qui permet à ces mammifères de survivre et de s'adapter au froid[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie à La Charité à partir de 1803 et est reçu docteur en médecine en 1812 grâce à une thèse sur les écrits de François Broussais. Il fut un anatomiste réputé. Il succéda à Jean Cruveilhier, comme professeur d'anatomie à la Faculté de médecine.
+Breschet apporte de nombreuses contributions à l'anatomie comparée ainsi que sur l'étude des zoonoses. En 1813, avec François Magendie (1783-1855), il démontre que la rage peut être transmise de la salive de l'homme aux chiens. En outre, il a découvert le rete mirabile des baleines et des dauphins, un réseau vasculaire qui permet à ces mammifères de survivre et de s'adapter au froid.
 Le sinus de Breschet ou sinus sphéno-pariétal a été nommé en son honneur.
-Il est inhumé au cimetière du Père-Lachaise (68e division)[4] aux côtés de sa femme et de sa fille[5].
-Sa fille, Anne-Gabrielle, a épousé le journaliste et historien Amédée Thierry[6].
+Il est inhumé au cimetière du Père-Lachaise (68e division) aux côtés de sa femme et de sa fille.
+Sa fille, Anne-Gabrielle, a épousé le journaliste et historien Amédée Thierry.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De La Desiccation, et des autres moyens de conservation des pièces anatomiques. Paris, Mequignon Marris, 1819.
 Recherches anatomiques, physiologiques et pathologiques sur le système veineux, Paris, Rouen frères, 1829, lithographies en couleur d'Engelmann d'après Antoine Chazal.
-Analyse d'un premier mémoire sur la structure et les fonctions de la peau, présenté à l'Académie royale des sciences dans la séance du 27 janvier 1834. . [1834]. (Texte intégral.)
+Analyse d'un premier mémoire sur la structure et les fonctions de la peau, présenté à l'Académie royale des sciences dans la séance du 27 janvier 1834. . . (Texte intégral.)
 Recherches anatomiques et physiologiques sur l'organe de l'ouie et sur l'audition dans l'homme et les animaux vertébrés, Paris, Baillière, 1836.</t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Iconographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son portrait, estampe gravée par Nicolas Eustache Maurin (1799-1850).
 Breschet est représenté (avec d'autres) par Robert-Fleury dans un tableau exposé au Salon de 1827, Les Derniers moments de Talma, et de nos jours conservé par le musée Robert Dubois-Corneau à Brunoy.</t>
